--- a/Notes Tubes.xlsx
+++ b/Notes Tubes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinurra\Documents\Kuliah\Semester-4\Medan\tubes\Tubes-Medan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7DCB30-07EC-4AD8-9855-C93EEFE7330A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15173892-77A6-45F7-883D-67C792665B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,7 +312,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1177,8 @@
         <v>9.8893635286829748E-2</v>
       </c>
       <c r="M13" s="3">
-        <v>1000</v>
+        <f>3.5255</f>
+        <v>3.5255000000000001</v>
       </c>
       <c r="N13" s="1">
         <f>1</f>
@@ -1246,7 +1247,8 @@
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>1000</v>
+        <f>3.5255</f>
+        <v>3.5255000000000001</v>
       </c>
       <c r="O14" s="1">
         <f>1</f>
@@ -1315,7 +1317,8 @@
         <v>1</v>
       </c>
       <c r="O15" s="1">
-        <v>1000</v>
+        <f>3.5255</f>
+        <v>3.5255000000000001</v>
       </c>
       <c r="P15" s="1">
         <f>1</f>
@@ -1384,7 +1387,8 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>1000</v>
+        <f>3.5255</f>
+        <v>3.5255000000000001</v>
       </c>
     </row>
   </sheetData>
